--- a/ABNB.xlsx
+++ b/ABNB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE4987C-7925-4CB4-AD0B-E41C93771E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C46F072-588D-40E7-9DED-D615015DA05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{BF0D7BA1-2D49-4720-893B-E9AA4BD828FF}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{BF0D7BA1-2D49-4720-893B-E9AA4BD828FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>ABNB</t>
   </si>
@@ -179,18 +179,39 @@
   <si>
     <t>Airbnb</t>
   </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -251,25 +272,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,7 +633,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -630,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>128.30000000000001</v>
+        <v>123.56</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -638,11 +663,11 @@
         <v>4</v>
       </c>
       <c r="H3" s="3">
-        <f>432.87659+191.89505+9.2</f>
-        <v>633.97164000000009</v>
+        <f>429.079558+183.156112+9.2</f>
+        <v>621.43567000000007</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -654,7 +679,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>81338.561412000025</v>
+        <v>76784.591385200009</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -665,11 +690,11 @@
         <v>6</v>
       </c>
       <c r="H5" s="3">
-        <f>7670+3583</f>
-        <v>11253</v>
+        <f>7402+3954</f>
+        <v>11356</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -677,10 +702,11 @@
         <v>7</v>
       </c>
       <c r="H6" s="3">
-        <v>1991</v>
+        <f>1997+0</f>
+        <v>1997</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -689,7 +715,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>72076.561412000025</v>
+        <v>67425.591385200009</v>
       </c>
     </row>
   </sheetData>
@@ -699,13 +725,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8361F6-13BE-4C54-A9AF-427906A8D2C3}">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BT166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -715,12 +741,12 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:22">
       <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
@@ -745,1332 +771,675 @@
       <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:22" s="12" customFormat="1">
+      <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <v>113.2</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8">
+      <c r="G3" s="12">
+        <v>133</v>
+      </c>
+      <c r="H3" s="12">
+        <v>125</v>
+      </c>
+      <c r="I3" s="12">
         <v>122.8</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:68">
+      <c r="K3" s="12">
+        <v>143</v>
+      </c>
+      <c r="L3" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="12" customFormat="1">
+      <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>18300</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="G4" s="12">
+        <v>22925</v>
+      </c>
+      <c r="H4" s="12">
+        <v>21213</v>
+      </c>
+      <c r="I4" s="12">
         <v>20100</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:68">
+      <c r="K4" s="12">
+        <v>24515</v>
+      </c>
+      <c r="L4" s="12">
+        <v>23447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="12" customFormat="1">
+      <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="8" t="e">
+      <c r="C5" s="12" t="e">
         <f t="shared" ref="C5:D5" si="0">+C4/C3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D5" s="8" t="e">
+      <c r="D5" s="12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <f>+E4/E3</f>
         <v>161.66077738515901</v>
       </c>
-      <c r="F5" s="8" t="e">
-        <f t="shared" ref="F5:J5" si="1">+F4/F3</f>
+      <c r="F5" s="12" t="e">
+        <f t="shared" ref="F5:N5" si="1">+F4/F3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="8" t="e">
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>172.36842105263159</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" ref="H5" si="2">+H4/H3</f>
+        <v>169.70400000000001</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="1"/>
+        <v>163.68078175895766</v>
+      </c>
+      <c r="J5" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="8" t="e">
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
+        <v>171.43356643356643</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="1"/>
+        <v>174.97761194029852</v>
+      </c>
+      <c r="M5" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="8">
-        <f t="shared" si="1"/>
-        <v>163.68078175895766</v>
-      </c>
-      <c r="J5" s="8" t="e">
+      <c r="N5" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:68">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="1:68">
+    </row>
+    <row r="6" spans="1:22" s="12" customFormat="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" s="12" customFormat="1">
+      <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="E7" s="12">
         <v>1478</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="G7" s="12">
+        <v>1015</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1308</v>
+      </c>
+      <c r="I7" s="12">
         <v>1572</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-    </row>
-    <row r="8" spans="1:68">
+      <c r="K7" s="12">
+        <v>1954</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="12" customFormat="1">
+      <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
+      <c r="E8" s="12">
         <v>1533</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
+      <c r="G8" s="12">
+        <v>567</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1048</v>
+      </c>
+      <c r="I8" s="12">
         <v>1726</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-    </row>
-    <row r="9" spans="1:68">
+      <c r="K8" s="12">
+        <v>597</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="12" customFormat="1">
+      <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
+      <c r="E9" s="12">
         <v>178</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="G9" s="12">
+        <v>307</v>
+      </c>
+      <c r="H9" s="12">
+        <v>185</v>
+      </c>
+      <c r="I9" s="12">
         <v>199</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:68">
+      <c r="K9" s="12">
+        <v>343</v>
+      </c>
+      <c r="L9" s="12">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="12" customFormat="1">
+      <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
+      <c r="E10" s="12">
         <v>208</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
+      <c r="G10" s="12">
+        <v>253</v>
+      </c>
+      <c r="H10" s="12">
+        <v>207</v>
+      </c>
+      <c r="I10" s="12">
         <v>235</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-    </row>
-    <row r="11" spans="1:68" s="9" customFormat="1">
+      <c r="K10" s="12">
+        <v>278</v>
+      </c>
+      <c r="L10" s="12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="13" customFormat="1">
+      <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
+      <c r="E11" s="13">
         <v>3397</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
+      <c r="G11" s="13">
+        <v>2142</v>
+      </c>
+      <c r="H11" s="13">
+        <v>2748</v>
+      </c>
+      <c r="I11" s="13">
         <v>3732</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BB11" s="10"/>
-      <c r="BC11" s="10"/>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
-      <c r="BK11" s="10"/>
-      <c r="BL11" s="10"/>
-      <c r="BM11" s="10"/>
-      <c r="BN11" s="10"/>
-      <c r="BO11" s="10"/>
-      <c r="BP11" s="10"/>
-    </row>
-    <row r="12" spans="1:68">
+      <c r="K11" s="13">
+        <v>2272</v>
+      </c>
+      <c r="L11" s="13">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="12" customFormat="1">
+      <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8">
+      <c r="E12" s="12">
         <v>459</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
+      <c r="G12" s="12">
+        <v>480</v>
+      </c>
+      <c r="H12" s="12">
+        <v>506</v>
+      </c>
+      <c r="I12" s="12">
         <v>465</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="8"/>
-      <c r="BH12" s="8"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="8"/>
-      <c r="BO12" s="8"/>
-      <c r="BP12" s="8"/>
-    </row>
-    <row r="13" spans="1:68">
+      <c r="K12" s="12">
+        <v>506</v>
+      </c>
+      <c r="L12" s="12">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="12" customFormat="1">
+      <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8">
-        <f t="shared" ref="C13:G13" si="2">+C11-C12</f>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:H13" si="3">+C11-C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="2"/>
-        <v>2938</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <f>+H11-H12</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" ref="I13:J13" si="3">+I11-I12</f>
-        <v>3267</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="D13" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
-      <c r="BH13" s="8"/>
-      <c r="BI13" s="8"/>
-      <c r="BJ13" s="8"/>
-      <c r="BK13" s="8"/>
-      <c r="BL13" s="8"/>
-      <c r="BM13" s="8"/>
-      <c r="BN13" s="8"/>
-      <c r="BO13" s="8"/>
-      <c r="BP13" s="8"/>
-    </row>
-    <row r="14" spans="1:68">
+      <c r="E13" s="12">
+        <f t="shared" si="3"/>
+        <v>2938</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="3"/>
+        <v>1662</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="3"/>
+        <v>2242</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" ref="I13:N13" si="4">+I11-I12</f>
+        <v>3267</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="4"/>
+        <v>1766</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="4"/>
+        <v>2552</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="12" customFormat="1">
+      <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8">
+      <c r="E14" s="12">
         <v>316</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8">
+      <c r="G14" s="12">
+        <v>285</v>
+      </c>
+      <c r="H14" s="12">
+        <v>338</v>
+      </c>
+      <c r="I14" s="12">
         <v>369</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
-      <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="8"/>
-      <c r="BO14" s="8"/>
-      <c r="BP14" s="8"/>
-    </row>
-    <row r="15" spans="1:68">
+      <c r="K14" s="12">
+        <v>303</v>
+      </c>
+      <c r="L14" s="12">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="12" customFormat="1">
+      <c r="A15" s="6"/>
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
+      <c r="E15" s="12">
         <v>419</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8">
+      <c r="G15" s="12">
+        <v>475</v>
+      </c>
+      <c r="H15" s="12">
+        <v>519</v>
+      </c>
+      <c r="I15" s="12">
         <v>524</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="8"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="8"/>
-      <c r="AQ15" s="8"/>
-      <c r="AR15" s="8"/>
-      <c r="AS15" s="8"/>
-      <c r="AT15" s="8"/>
-      <c r="AU15" s="8"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="8"/>
-      <c r="AY15" s="8"/>
-      <c r="AZ15" s="8"/>
-      <c r="BA15" s="8"/>
-      <c r="BB15" s="8"/>
-      <c r="BC15" s="8"/>
-      <c r="BD15" s="8"/>
-      <c r="BE15" s="8"/>
-      <c r="BF15" s="8"/>
-      <c r="BG15" s="8"/>
-      <c r="BH15" s="8"/>
-      <c r="BI15" s="8"/>
-      <c r="BJ15" s="8"/>
-      <c r="BK15" s="8"/>
-      <c r="BL15" s="8"/>
-      <c r="BM15" s="8"/>
-      <c r="BN15" s="8"/>
-      <c r="BO15" s="8"/>
-      <c r="BP15" s="8"/>
-    </row>
-    <row r="16" spans="1:68">
+      <c r="K15" s="12">
+        <v>568</v>
+      </c>
+      <c r="L15" s="12">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="12" customFormat="1">
+      <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8">
+      <c r="E16" s="12">
         <v>403</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8">
+      <c r="G16" s="12">
         <v>514</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="8"/>
-      <c r="BF16" s="8"/>
-      <c r="BG16" s="8"/>
-      <c r="BH16" s="8"/>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="8"/>
-      <c r="BK16" s="8"/>
-      <c r="BL16" s="8"/>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="8"/>
-      <c r="BO16" s="8"/>
-      <c r="BP16" s="8"/>
-    </row>
-    <row r="17" spans="2:68">
+      <c r="H16" s="12">
+        <v>573</v>
+      </c>
+      <c r="I16" s="12">
+        <v>514</v>
+      </c>
+      <c r="K16" s="12">
+        <v>563</v>
+      </c>
+      <c r="L16" s="12">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:72" s="12" customFormat="1">
+      <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8">
+      <c r="E17" s="12">
         <v>304</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8">
+      <c r="G17" s="12">
+        <v>287</v>
+      </c>
+      <c r="H17" s="12">
+        <v>315</v>
+      </c>
+      <c r="I17" s="12">
         <v>335</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
-      <c r="BF17" s="8"/>
-      <c r="BG17" s="8"/>
-      <c r="BH17" s="8"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="8"/>
-      <c r="BK17" s="8"/>
-      <c r="BL17" s="8"/>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="8"/>
-      <c r="BO17" s="8"/>
-      <c r="BP17" s="8"/>
-    </row>
-    <row r="18" spans="2:68">
+      <c r="K17" s="12">
+        <v>294</v>
+      </c>
+      <c r="L17" s="12">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:72" s="12" customFormat="1">
+      <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8">
-        <f t="shared" ref="C18:I18" si="4">+C13-SUM(C14:C17)</f>
+      <c r="C18" s="12">
+        <f t="shared" ref="C18:I18" si="5">+C13-SUM(C14:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="4"/>
+      <c r="D18" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E18" s="8">
-        <f t="shared" si="4"/>
+      <c r="E18" s="12">
+        <f t="shared" si="5"/>
         <v>1496</v>
       </c>
-      <c r="F18" s="8">
-        <f t="shared" si="4"/>
+      <c r="F18" s="12">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="4"/>
+      <c r="G18" s="12">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" ref="H18" si="6">+H13-SUM(H14:H17)</f>
+        <v>497</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="5"/>
         <v>1525</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="12">
         <f>+J13-SUM(J14:J17)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="8"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="8"/>
-      <c r="AT18" s="8"/>
-      <c r="AU18" s="8"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="8"/>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="8"/>
-      <c r="AZ18" s="8"/>
-      <c r="BA18" s="8"/>
-      <c r="BB18" s="8"/>
-      <c r="BC18" s="8"/>
-      <c r="BD18" s="8"/>
-      <c r="BE18" s="8"/>
-      <c r="BF18" s="8"/>
-      <c r="BG18" s="8"/>
-      <c r="BH18" s="8"/>
-      <c r="BI18" s="8"/>
-      <c r="BJ18" s="8"/>
-      <c r="BK18" s="8"/>
-      <c r="BL18" s="8"/>
-      <c r="BM18" s="8"/>
-      <c r="BN18" s="8"/>
-      <c r="BO18" s="8"/>
-      <c r="BP18" s="8"/>
-    </row>
-    <row r="19" spans="2:68">
+      <c r="K18" s="12">
+        <f t="shared" ref="K18:N18" si="7">+K13-SUM(K14:K17)</f>
+        <v>38</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="7"/>
+        <v>612</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:72" s="12" customFormat="1">
+      <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8">
+      <c r="E19" s="12">
         <v>192</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8">
+      <c r="G19" s="12">
+        <v>202</v>
+      </c>
+      <c r="H19" s="12">
+        <v>226</v>
+      </c>
+      <c r="I19" s="12">
         <v>207</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="8"/>
-      <c r="AU19" s="8"/>
-      <c r="AV19" s="8"/>
-      <c r="AW19" s="8"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="8"/>
-      <c r="BA19" s="8"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-      <c r="BD19" s="8"/>
-      <c r="BE19" s="8"/>
-      <c r="BF19" s="8"/>
-      <c r="BG19" s="8"/>
-      <c r="BH19" s="8"/>
-      <c r="BI19" s="8"/>
-      <c r="BJ19" s="8"/>
-      <c r="BK19" s="8"/>
-      <c r="BL19" s="8"/>
-      <c r="BM19" s="8"/>
-      <c r="BN19" s="8"/>
-      <c r="BO19" s="8"/>
-      <c r="BP19" s="8"/>
-    </row>
-    <row r="20" spans="2:68">
+      <c r="K19" s="12">
+        <v>173</v>
+      </c>
+      <c r="L19" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:72" s="12" customFormat="1">
+      <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8">
+      <c r="E20" s="12">
         <v>-9</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8">
+      <c r="G20" s="12">
+        <v>-10</v>
+      </c>
+      <c r="H20" s="12">
+        <v>-42</v>
+      </c>
+      <c r="I20" s="12">
         <v>3</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="8"/>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="8"/>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="8"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="8"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="8"/>
-      <c r="BC20" s="8"/>
-      <c r="BD20" s="8"/>
-      <c r="BE20" s="8"/>
-      <c r="BF20" s="8"/>
-      <c r="BG20" s="8"/>
-      <c r="BH20" s="8"/>
-      <c r="BI20" s="8"/>
-      <c r="BJ20" s="8"/>
-      <c r="BK20" s="8"/>
-      <c r="BL20" s="8"/>
-      <c r="BM20" s="8"/>
-      <c r="BN20" s="8"/>
-      <c r="BO20" s="8"/>
-      <c r="BP20" s="8"/>
-    </row>
-    <row r="21" spans="2:68">
+      <c r="K20" s="12">
+        <v>-38</v>
+      </c>
+      <c r="L20" s="12">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:72" s="12" customFormat="1">
+      <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="8">
-        <f t="shared" ref="C21:D21" si="5">+C18+SUM(C19:C20)</f>
+      <c r="C21" s="12">
+        <f t="shared" ref="C21:D21" si="8">+C18+SUM(C19:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="8">
-        <f t="shared" si="5"/>
+      <c r="D21" s="12">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="12">
         <f>+E18+SUM(E19:E20)</f>
         <v>1679</v>
       </c>
-      <c r="F21" s="8">
-        <f t="shared" ref="F21:J21" si="6">+F18+SUM(F19:F20)</f>
+      <c r="F21" s="12">
+        <f t="shared" ref="F21:N21" si="9">+F18+SUM(F19:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="8">
-        <f t="shared" si="6"/>
+      <c r="G21" s="12">
+        <f t="shared" si="9"/>
+        <v>293</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" ref="H21" si="10">+H18+SUM(H19:H20)</f>
+        <v>681</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="9"/>
+        <v>1735</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H21" s="8">
-        <f t="shared" si="6"/>
+      <c r="K21" s="12">
+        <f t="shared" si="9"/>
+        <v>173</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="9"/>
+        <v>779</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I21" s="8">
-        <f t="shared" si="6"/>
-        <v>1735</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="6"/>
+      <c r="N21" s="12">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-      <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-      <c r="BH21" s="8"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
-      <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
-      <c r="BN21" s="8"/>
-      <c r="BO21" s="8"/>
-      <c r="BP21" s="8"/>
-    </row>
-    <row r="22" spans="2:68">
+    </row>
+    <row r="22" spans="1:72" s="12" customFormat="1">
+      <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8">
+      <c r="E22" s="12">
         <v>-2695</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8">
+      <c r="G22" s="12">
+        <v>29</v>
+      </c>
+      <c r="H22" s="12">
+        <v>126</v>
+      </c>
+      <c r="I22" s="12">
         <v>367</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="8"/>
-      <c r="BK22" s="8"/>
-      <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
-      <c r="BN22" s="8"/>
-      <c r="BO22" s="8"/>
-      <c r="BP22" s="8"/>
-    </row>
-    <row r="23" spans="2:68">
+      <c r="K22" s="12">
+        <v>19</v>
+      </c>
+      <c r="L22" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:72" s="12" customFormat="1">
+      <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="8">
-        <f t="shared" ref="C23:H23" si="7">+C21-C22</f>
+      <c r="C23" s="12">
+        <f t="shared" ref="C23:H23" si="11">+C21-C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="8">
-        <f t="shared" si="7"/>
+      <c r="D23" s="12">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E23" s="8">
-        <f t="shared" si="7"/>
+      <c r="E23" s="12">
+        <f t="shared" si="11"/>
         <v>4374</v>
       </c>
-      <c r="F23" s="8">
-        <f t="shared" si="7"/>
+      <c r="F23" s="12">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G23" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="G23" s="12">
+        <f t="shared" si="11"/>
+        <v>264</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="11"/>
+        <v>555</v>
+      </c>
+      <c r="I23" s="12">
         <f>+I21-I22</f>
         <v>1368</v>
       </c>
-      <c r="J23" s="8">
-        <f t="shared" ref="J23" si="8">+J21-J22</f>
+      <c r="J23" s="12">
+        <f t="shared" ref="J23:N23" si="12">+J21-J22</f>
         <v>0</v>
       </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
-      <c r="AM23" s="8"/>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="8"/>
-      <c r="AQ23" s="8"/>
-      <c r="AR23" s="8"/>
-      <c r="AS23" s="8"/>
-      <c r="AT23" s="8"/>
-      <c r="AU23" s="8"/>
-      <c r="AV23" s="8"/>
-      <c r="AW23" s="8"/>
-      <c r="AX23" s="8"/>
-      <c r="AY23" s="8"/>
-      <c r="AZ23" s="8"/>
-      <c r="BA23" s="8"/>
-      <c r="BB23" s="8"/>
-      <c r="BC23" s="8"/>
-      <c r="BD23" s="8"/>
-      <c r="BE23" s="8"/>
-      <c r="BF23" s="8"/>
-      <c r="BG23" s="8"/>
-      <c r="BH23" s="8"/>
-      <c r="BI23" s="8"/>
-      <c r="BJ23" s="8"/>
-      <c r="BK23" s="8"/>
-      <c r="BL23" s="8"/>
-      <c r="BM23" s="8"/>
-      <c r="BN23" s="8"/>
-      <c r="BO23" s="8"/>
-      <c r="BP23" s="8"/>
-    </row>
-    <row r="24" spans="2:68">
+      <c r="K23" s="12">
+        <f t="shared" si="12"/>
+        <v>154</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="12"/>
+        <v>642</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:72">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2137,47 +1506,63 @@
       <c r="BN24" s="8"/>
       <c r="BO24" s="8"/>
       <c r="BP24" s="8"/>
-    </row>
-    <row r="25" spans="2:68">
+      <c r="BQ24" s="8"/>
+      <c r="BR24" s="8"/>
+      <c r="BS24" s="8"/>
+      <c r="BT24" s="8"/>
+    </row>
+    <row r="25" spans="1:72">
       <c r="B25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="11" t="e">
-        <f t="shared" ref="C25:H25" si="9">+C23/C26</f>
+      <c r="C25" s="10" t="e">
+        <f t="shared" ref="C25:H25" si="13">+C23/C26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="11" t="e">
-        <f t="shared" si="9"/>
+      <c r="D25" s="10" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="9"/>
+      <c r="E25" s="10">
+        <f t="shared" si="13"/>
         <v>6.8343749999999996</v>
       </c>
-      <c r="F25" s="11" t="e">
-        <f t="shared" si="9"/>
+      <c r="F25" s="10" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="11" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="11">
+      <c r="G25" s="10">
+        <f t="shared" si="13"/>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="13"/>
+        <v>0.87401574803149606</v>
+      </c>
+      <c r="I25" s="10">
         <f>+I23/I26</f>
         <v>2.167987321711569</v>
       </c>
-      <c r="J25" s="11" t="e">
-        <f t="shared" ref="J25" si="10">+J23/J26</f>
+      <c r="J25" s="10" t="e">
+        <f t="shared" ref="J25:N25" si="14">+J23/J26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="K25" s="10">
+        <f t="shared" si="14"/>
+        <v>0.24798711755233493</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="14"/>
+        <v>1.0422077922077921</v>
+      </c>
+      <c r="M25" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
@@ -2232,8 +1617,12 @@
       <c r="BN25" s="8"/>
       <c r="BO25" s="8"/>
       <c r="BP25" s="8"/>
-    </row>
-    <row r="26" spans="2:68">
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8"/>
+      <c r="BT25" s="8"/>
+    </row>
+    <row r="26" spans="1:72">
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -2243,14 +1632,22 @@
         <v>640</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="8">
+        <v>638</v>
+      </c>
+      <c r="H26" s="8">
+        <v>635</v>
+      </c>
       <c r="I26" s="8">
         <v>631</v>
       </c>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="K26" s="8">
+        <v>621</v>
+      </c>
+      <c r="L26" s="8">
+        <v>616</v>
+      </c>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -2307,8 +1704,12 @@
       <c r="BN26" s="8"/>
       <c r="BO26" s="8"/>
       <c r="BP26" s="8"/>
-    </row>
-    <row r="27" spans="2:68">
+      <c r="BQ26" s="8"/>
+      <c r="BR26" s="8"/>
+      <c r="BS26" s="8"/>
+      <c r="BT26" s="8"/>
+    </row>
+    <row r="27" spans="1:72">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2375,8 +1776,12 @@
       <c r="BN27" s="8"/>
       <c r="BO27" s="8"/>
       <c r="BP27" s="8"/>
-    </row>
-    <row r="28" spans="2:68">
+      <c r="BQ27" s="8"/>
+      <c r="BR27" s="8"/>
+      <c r="BS27" s="8"/>
+      <c r="BT27" s="8"/>
+    </row>
+    <row r="28" spans="1:72">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2443,8 +1848,12 @@
       <c r="BN28" s="8"/>
       <c r="BO28" s="8"/>
       <c r="BP28" s="8"/>
-    </row>
-    <row r="29" spans="2:68">
+      <c r="BQ28" s="8"/>
+      <c r="BR28" s="8"/>
+      <c r="BS28" s="8"/>
+      <c r="BT28" s="8"/>
+    </row>
+    <row r="29" spans="1:72">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2511,8 +1920,12 @@
       <c r="BN29" s="8"/>
       <c r="BO29" s="8"/>
       <c r="BP29" s="8"/>
-    </row>
-    <row r="30" spans="2:68">
+      <c r="BQ29" s="8"/>
+      <c r="BR29" s="8"/>
+      <c r="BS29" s="8"/>
+      <c r="BT29" s="8"/>
+    </row>
+    <row r="30" spans="1:72">
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2579,8 +1992,12 @@
       <c r="BN30" s="8"/>
       <c r="BO30" s="8"/>
       <c r="BP30" s="8"/>
-    </row>
-    <row r="31" spans="2:68">
+      <c r="BQ30" s="8"/>
+      <c r="BR30" s="8"/>
+      <c r="BS30" s="8"/>
+      <c r="BT30" s="8"/>
+    </row>
+    <row r="31" spans="1:72">
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2647,8 +2064,12 @@
       <c r="BN31" s="8"/>
       <c r="BO31" s="8"/>
       <c r="BP31" s="8"/>
-    </row>
-    <row r="32" spans="2:68">
+      <c r="BQ31" s="8"/>
+      <c r="BR31" s="8"/>
+      <c r="BS31" s="8"/>
+      <c r="BT31" s="8"/>
+    </row>
+    <row r="32" spans="1:72">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2715,8 +2136,12 @@
       <c r="BN32" s="8"/>
       <c r="BO32" s="8"/>
       <c r="BP32" s="8"/>
-    </row>
-    <row r="33" spans="3:68">
+      <c r="BQ32" s="8"/>
+      <c r="BR32" s="8"/>
+      <c r="BS32" s="8"/>
+      <c r="BT32" s="8"/>
+    </row>
+    <row r="33" spans="3:72">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2783,8 +2208,12 @@
       <c r="BN33" s="8"/>
       <c r="BO33" s="8"/>
       <c r="BP33" s="8"/>
-    </row>
-    <row r="34" spans="3:68">
+      <c r="BQ33" s="8"/>
+      <c r="BR33" s="8"/>
+      <c r="BS33" s="8"/>
+      <c r="BT33" s="8"/>
+    </row>
+    <row r="34" spans="3:72">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2851,8 +2280,12 @@
       <c r="BN34" s="8"/>
       <c r="BO34" s="8"/>
       <c r="BP34" s="8"/>
-    </row>
-    <row r="35" spans="3:68">
+      <c r="BQ34" s="8"/>
+      <c r="BR34" s="8"/>
+      <c r="BS34" s="8"/>
+      <c r="BT34" s="8"/>
+    </row>
+    <row r="35" spans="3:72">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2919,8 +2352,12 @@
       <c r="BN35" s="8"/>
       <c r="BO35" s="8"/>
       <c r="BP35" s="8"/>
-    </row>
-    <row r="36" spans="3:68">
+      <c r="BQ35" s="8"/>
+      <c r="BR35" s="8"/>
+      <c r="BS35" s="8"/>
+      <c r="BT35" s="8"/>
+    </row>
+    <row r="36" spans="3:72">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2987,8 +2424,12 @@
       <c r="BN36" s="8"/>
       <c r="BO36" s="8"/>
       <c r="BP36" s="8"/>
-    </row>
-    <row r="37" spans="3:68">
+      <c r="BQ36" s="8"/>
+      <c r="BR36" s="8"/>
+      <c r="BS36" s="8"/>
+      <c r="BT36" s="8"/>
+    </row>
+    <row r="37" spans="3:72">
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3055,8 +2496,12 @@
       <c r="BN37" s="8"/>
       <c r="BO37" s="8"/>
       <c r="BP37" s="8"/>
-    </row>
-    <row r="38" spans="3:68">
+      <c r="BQ37" s="8"/>
+      <c r="BR37" s="8"/>
+      <c r="BS37" s="8"/>
+      <c r="BT37" s="8"/>
+    </row>
+    <row r="38" spans="3:72">
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3123,8 +2568,12 @@
       <c r="BN38" s="8"/>
       <c r="BO38" s="8"/>
       <c r="BP38" s="8"/>
-    </row>
-    <row r="39" spans="3:68">
+      <c r="BQ38" s="8"/>
+      <c r="BR38" s="8"/>
+      <c r="BS38" s="8"/>
+      <c r="BT38" s="8"/>
+    </row>
+    <row r="39" spans="3:72">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3191,8 +2640,12 @@
       <c r="BN39" s="8"/>
       <c r="BO39" s="8"/>
       <c r="BP39" s="8"/>
-    </row>
-    <row r="40" spans="3:68">
+      <c r="BQ39" s="8"/>
+      <c r="BR39" s="8"/>
+      <c r="BS39" s="8"/>
+      <c r="BT39" s="8"/>
+    </row>
+    <row r="40" spans="3:72">
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3259,8 +2712,12 @@
       <c r="BN40" s="8"/>
       <c r="BO40" s="8"/>
       <c r="BP40" s="8"/>
-    </row>
-    <row r="41" spans="3:68">
+      <c r="BQ40" s="8"/>
+      <c r="BR40" s="8"/>
+      <c r="BS40" s="8"/>
+      <c r="BT40" s="8"/>
+    </row>
+    <row r="41" spans="3:72">
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3327,8 +2784,12 @@
       <c r="BN41" s="8"/>
       <c r="BO41" s="8"/>
       <c r="BP41" s="8"/>
-    </row>
-    <row r="42" spans="3:68">
+      <c r="BQ41" s="8"/>
+      <c r="BR41" s="8"/>
+      <c r="BS41" s="8"/>
+      <c r="BT41" s="8"/>
+    </row>
+    <row r="42" spans="3:72">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -3395,8 +2856,12 @@
       <c r="BN42" s="8"/>
       <c r="BO42" s="8"/>
       <c r="BP42" s="8"/>
-    </row>
-    <row r="43" spans="3:68">
+      <c r="BQ42" s="8"/>
+      <c r="BR42" s="8"/>
+      <c r="BS42" s="8"/>
+      <c r="BT42" s="8"/>
+    </row>
+    <row r="43" spans="3:72">
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3463,8 +2928,12 @@
       <c r="BN43" s="8"/>
       <c r="BO43" s="8"/>
       <c r="BP43" s="8"/>
-    </row>
-    <row r="44" spans="3:68">
+      <c r="BQ43" s="8"/>
+      <c r="BR43" s="8"/>
+      <c r="BS43" s="8"/>
+      <c r="BT43" s="8"/>
+    </row>
+    <row r="44" spans="3:72">
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3531,8 +3000,12 @@
       <c r="BN44" s="8"/>
       <c r="BO44" s="8"/>
       <c r="BP44" s="8"/>
-    </row>
-    <row r="45" spans="3:68">
+      <c r="BQ44" s="8"/>
+      <c r="BR44" s="8"/>
+      <c r="BS44" s="8"/>
+      <c r="BT44" s="8"/>
+    </row>
+    <row r="45" spans="3:72">
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3599,8 +3072,12 @@
       <c r="BN45" s="8"/>
       <c r="BO45" s="8"/>
       <c r="BP45" s="8"/>
-    </row>
-    <row r="46" spans="3:68">
+      <c r="BQ45" s="8"/>
+      <c r="BR45" s="8"/>
+      <c r="BS45" s="8"/>
+      <c r="BT45" s="8"/>
+    </row>
+    <row r="46" spans="3:72">
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3667,8 +3144,12 @@
       <c r="BN46" s="8"/>
       <c r="BO46" s="8"/>
       <c r="BP46" s="8"/>
-    </row>
-    <row r="47" spans="3:68">
+      <c r="BQ46" s="8"/>
+      <c r="BR46" s="8"/>
+      <c r="BS46" s="8"/>
+      <c r="BT46" s="8"/>
+    </row>
+    <row r="47" spans="3:72">
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3735,8 +3216,12 @@
       <c r="BN47" s="8"/>
       <c r="BO47" s="8"/>
       <c r="BP47" s="8"/>
-    </row>
-    <row r="48" spans="3:68">
+      <c r="BQ47" s="8"/>
+      <c r="BR47" s="8"/>
+      <c r="BS47" s="8"/>
+      <c r="BT47" s="8"/>
+    </row>
+    <row r="48" spans="3:72">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3803,8 +3288,12 @@
       <c r="BN48" s="8"/>
       <c r="BO48" s="8"/>
       <c r="BP48" s="8"/>
-    </row>
-    <row r="49" spans="3:68">
+      <c r="BQ48" s="8"/>
+      <c r="BR48" s="8"/>
+      <c r="BS48" s="8"/>
+      <c r="BT48" s="8"/>
+    </row>
+    <row r="49" spans="3:72">
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3871,8 +3360,12 @@
       <c r="BN49" s="8"/>
       <c r="BO49" s="8"/>
       <c r="BP49" s="8"/>
-    </row>
-    <row r="50" spans="3:68">
+      <c r="BQ49" s="8"/>
+      <c r="BR49" s="8"/>
+      <c r="BS49" s="8"/>
+      <c r="BT49" s="8"/>
+    </row>
+    <row r="50" spans="3:72">
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3939,8 +3432,12 @@
       <c r="BN50" s="8"/>
       <c r="BO50" s="8"/>
       <c r="BP50" s="8"/>
-    </row>
-    <row r="51" spans="3:68">
+      <c r="BQ50" s="8"/>
+      <c r="BR50" s="8"/>
+      <c r="BS50" s="8"/>
+      <c r="BT50" s="8"/>
+    </row>
+    <row r="51" spans="3:72">
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -4007,8 +3504,12 @@
       <c r="BN51" s="8"/>
       <c r="BO51" s="8"/>
       <c r="BP51" s="8"/>
-    </row>
-    <row r="52" spans="3:68">
+      <c r="BQ51" s="8"/>
+      <c r="BR51" s="8"/>
+      <c r="BS51" s="8"/>
+      <c r="BT51" s="8"/>
+    </row>
+    <row r="52" spans="3:72">
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -4075,8 +3576,12 @@
       <c r="BN52" s="8"/>
       <c r="BO52" s="8"/>
       <c r="BP52" s="8"/>
-    </row>
-    <row r="53" spans="3:68">
+      <c r="BQ52" s="8"/>
+      <c r="BR52" s="8"/>
+      <c r="BS52" s="8"/>
+      <c r="BT52" s="8"/>
+    </row>
+    <row r="53" spans="3:72">
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -4143,8 +3648,12 @@
       <c r="BN53" s="8"/>
       <c r="BO53" s="8"/>
       <c r="BP53" s="8"/>
-    </row>
-    <row r="54" spans="3:68">
+      <c r="BQ53" s="8"/>
+      <c r="BR53" s="8"/>
+      <c r="BS53" s="8"/>
+      <c r="BT53" s="8"/>
+    </row>
+    <row r="54" spans="3:72">
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -4211,8 +3720,12 @@
       <c r="BN54" s="8"/>
       <c r="BO54" s="8"/>
       <c r="BP54" s="8"/>
-    </row>
-    <row r="55" spans="3:68">
+      <c r="BQ54" s="8"/>
+      <c r="BR54" s="8"/>
+      <c r="BS54" s="8"/>
+      <c r="BT54" s="8"/>
+    </row>
+    <row r="55" spans="3:72">
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -4279,8 +3792,12 @@
       <c r="BN55" s="8"/>
       <c r="BO55" s="8"/>
       <c r="BP55" s="8"/>
-    </row>
-    <row r="56" spans="3:68">
+      <c r="BQ55" s="8"/>
+      <c r="BR55" s="8"/>
+      <c r="BS55" s="8"/>
+      <c r="BT55" s="8"/>
+    </row>
+    <row r="56" spans="3:72">
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -4347,8 +3864,12 @@
       <c r="BN56" s="8"/>
       <c r="BO56" s="8"/>
       <c r="BP56" s="8"/>
-    </row>
-    <row r="57" spans="3:68">
+      <c r="BQ56" s="8"/>
+      <c r="BR56" s="8"/>
+      <c r="BS56" s="8"/>
+      <c r="BT56" s="8"/>
+    </row>
+    <row r="57" spans="3:72">
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -4415,8 +3936,12 @@
       <c r="BN57" s="8"/>
       <c r="BO57" s="8"/>
       <c r="BP57" s="8"/>
-    </row>
-    <row r="58" spans="3:68">
+      <c r="BQ57" s="8"/>
+      <c r="BR57" s="8"/>
+      <c r="BS57" s="8"/>
+      <c r="BT57" s="8"/>
+    </row>
+    <row r="58" spans="3:72">
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -4483,8 +4008,12 @@
       <c r="BN58" s="8"/>
       <c r="BO58" s="8"/>
       <c r="BP58" s="8"/>
-    </row>
-    <row r="59" spans="3:68">
+      <c r="BQ58" s="8"/>
+      <c r="BR58" s="8"/>
+      <c r="BS58" s="8"/>
+      <c r="BT58" s="8"/>
+    </row>
+    <row r="59" spans="3:72">
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -4551,8 +4080,12 @@
       <c r="BN59" s="8"/>
       <c r="BO59" s="8"/>
       <c r="BP59" s="8"/>
-    </row>
-    <row r="60" spans="3:68">
+      <c r="BQ59" s="8"/>
+      <c r="BR59" s="8"/>
+      <c r="BS59" s="8"/>
+      <c r="BT59" s="8"/>
+    </row>
+    <row r="60" spans="3:72">
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -4619,8 +4152,12 @@
       <c r="BN60" s="8"/>
       <c r="BO60" s="8"/>
       <c r="BP60" s="8"/>
-    </row>
-    <row r="61" spans="3:68">
+      <c r="BQ60" s="8"/>
+      <c r="BR60" s="8"/>
+      <c r="BS60" s="8"/>
+      <c r="BT60" s="8"/>
+    </row>
+    <row r="61" spans="3:72">
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -4687,8 +4224,12 @@
       <c r="BN61" s="8"/>
       <c r="BO61" s="8"/>
       <c r="BP61" s="8"/>
-    </row>
-    <row r="62" spans="3:68">
+      <c r="BQ61" s="8"/>
+      <c r="BR61" s="8"/>
+      <c r="BS61" s="8"/>
+      <c r="BT61" s="8"/>
+    </row>
+    <row r="62" spans="3:72">
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -4755,8 +4296,12 @@
       <c r="BN62" s="8"/>
       <c r="BO62" s="8"/>
       <c r="BP62" s="8"/>
-    </row>
-    <row r="63" spans="3:68">
+      <c r="BQ62" s="8"/>
+      <c r="BR62" s="8"/>
+      <c r="BS62" s="8"/>
+      <c r="BT62" s="8"/>
+    </row>
+    <row r="63" spans="3:72">
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -4823,8 +4368,12 @@
       <c r="BN63" s="8"/>
       <c r="BO63" s="8"/>
       <c r="BP63" s="8"/>
-    </row>
-    <row r="64" spans="3:68">
+      <c r="BQ63" s="8"/>
+      <c r="BR63" s="8"/>
+      <c r="BS63" s="8"/>
+      <c r="BT63" s="8"/>
+    </row>
+    <row r="64" spans="3:72">
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -4891,8 +4440,12 @@
       <c r="BN64" s="8"/>
       <c r="BO64" s="8"/>
       <c r="BP64" s="8"/>
-    </row>
-    <row r="65" spans="3:68">
+      <c r="BQ64" s="8"/>
+      <c r="BR64" s="8"/>
+      <c r="BS64" s="8"/>
+      <c r="BT64" s="8"/>
+    </row>
+    <row r="65" spans="3:72">
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -4959,8 +4512,12 @@
       <c r="BN65" s="8"/>
       <c r="BO65" s="8"/>
       <c r="BP65" s="8"/>
-    </row>
-    <row r="66" spans="3:68">
+      <c r="BQ65" s="8"/>
+      <c r="BR65" s="8"/>
+      <c r="BS65" s="8"/>
+      <c r="BT65" s="8"/>
+    </row>
+    <row r="66" spans="3:72">
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -5027,8 +4584,12 @@
       <c r="BN66" s="8"/>
       <c r="BO66" s="8"/>
       <c r="BP66" s="8"/>
-    </row>
-    <row r="67" spans="3:68">
+      <c r="BQ66" s="8"/>
+      <c r="BR66" s="8"/>
+      <c r="BS66" s="8"/>
+      <c r="BT66" s="8"/>
+    </row>
+    <row r="67" spans="3:72">
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -5095,8 +4656,12 @@
       <c r="BN67" s="8"/>
       <c r="BO67" s="8"/>
       <c r="BP67" s="8"/>
-    </row>
-    <row r="68" spans="3:68">
+      <c r="BQ67" s="8"/>
+      <c r="BR67" s="8"/>
+      <c r="BS67" s="8"/>
+      <c r="BT67" s="8"/>
+    </row>
+    <row r="68" spans="3:72">
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -5163,8 +4728,12 @@
       <c r="BN68" s="8"/>
       <c r="BO68" s="8"/>
       <c r="BP68" s="8"/>
-    </row>
-    <row r="69" spans="3:68">
+      <c r="BQ68" s="8"/>
+      <c r="BR68" s="8"/>
+      <c r="BS68" s="8"/>
+      <c r="BT68" s="8"/>
+    </row>
+    <row r="69" spans="3:72">
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -5231,8 +4800,12 @@
       <c r="BN69" s="8"/>
       <c r="BO69" s="8"/>
       <c r="BP69" s="8"/>
-    </row>
-    <row r="70" spans="3:68">
+      <c r="BQ69" s="8"/>
+      <c r="BR69" s="8"/>
+      <c r="BS69" s="8"/>
+      <c r="BT69" s="8"/>
+    </row>
+    <row r="70" spans="3:72">
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -5299,8 +4872,12 @@
       <c r="BN70" s="8"/>
       <c r="BO70" s="8"/>
       <c r="BP70" s="8"/>
-    </row>
-    <row r="71" spans="3:68">
+      <c r="BQ70" s="8"/>
+      <c r="BR70" s="8"/>
+      <c r="BS70" s="8"/>
+      <c r="BT70" s="8"/>
+    </row>
+    <row r="71" spans="3:72">
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -5367,8 +4944,12 @@
       <c r="BN71" s="8"/>
       <c r="BO71" s="8"/>
       <c r="BP71" s="8"/>
-    </row>
-    <row r="72" spans="3:68">
+      <c r="BQ71" s="8"/>
+      <c r="BR71" s="8"/>
+      <c r="BS71" s="8"/>
+      <c r="BT71" s="8"/>
+    </row>
+    <row r="72" spans="3:72">
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -5435,8 +5016,12 @@
       <c r="BN72" s="8"/>
       <c r="BO72" s="8"/>
       <c r="BP72" s="8"/>
-    </row>
-    <row r="73" spans="3:68">
+      <c r="BQ72" s="8"/>
+      <c r="BR72" s="8"/>
+      <c r="BS72" s="8"/>
+      <c r="BT72" s="8"/>
+    </row>
+    <row r="73" spans="3:72">
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -5503,8 +5088,12 @@
       <c r="BN73" s="8"/>
       <c r="BO73" s="8"/>
       <c r="BP73" s="8"/>
-    </row>
-    <row r="74" spans="3:68">
+      <c r="BQ73" s="8"/>
+      <c r="BR73" s="8"/>
+      <c r="BS73" s="8"/>
+      <c r="BT73" s="8"/>
+    </row>
+    <row r="74" spans="3:72">
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -5571,8 +5160,12 @@
       <c r="BN74" s="8"/>
       <c r="BO74" s="8"/>
       <c r="BP74" s="8"/>
-    </row>
-    <row r="75" spans="3:68">
+      <c r="BQ74" s="8"/>
+      <c r="BR74" s="8"/>
+      <c r="BS74" s="8"/>
+      <c r="BT74" s="8"/>
+    </row>
+    <row r="75" spans="3:72">
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -5639,8 +5232,12 @@
       <c r="BN75" s="8"/>
       <c r="BO75" s="8"/>
       <c r="BP75" s="8"/>
-    </row>
-    <row r="76" spans="3:68">
+      <c r="BQ75" s="8"/>
+      <c r="BR75" s="8"/>
+      <c r="BS75" s="8"/>
+      <c r="BT75" s="8"/>
+    </row>
+    <row r="76" spans="3:72">
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -5707,8 +5304,12 @@
       <c r="BN76" s="8"/>
       <c r="BO76" s="8"/>
       <c r="BP76" s="8"/>
-    </row>
-    <row r="77" spans="3:68">
+      <c r="BQ76" s="8"/>
+      <c r="BR76" s="8"/>
+      <c r="BS76" s="8"/>
+      <c r="BT76" s="8"/>
+    </row>
+    <row r="77" spans="3:72">
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -5775,8 +5376,12 @@
       <c r="BN77" s="8"/>
       <c r="BO77" s="8"/>
       <c r="BP77" s="8"/>
-    </row>
-    <row r="78" spans="3:68">
+      <c r="BQ77" s="8"/>
+      <c r="BR77" s="8"/>
+      <c r="BS77" s="8"/>
+      <c r="BT77" s="8"/>
+    </row>
+    <row r="78" spans="3:72">
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -5843,8 +5448,12 @@
       <c r="BN78" s="8"/>
       <c r="BO78" s="8"/>
       <c r="BP78" s="8"/>
-    </row>
-    <row r="79" spans="3:68">
+      <c r="BQ78" s="8"/>
+      <c r="BR78" s="8"/>
+      <c r="BS78" s="8"/>
+      <c r="BT78" s="8"/>
+    </row>
+    <row r="79" spans="3:72">
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -5911,8 +5520,12 @@
       <c r="BN79" s="8"/>
       <c r="BO79" s="8"/>
       <c r="BP79" s="8"/>
-    </row>
-    <row r="80" spans="3:68">
+      <c r="BQ79" s="8"/>
+      <c r="BR79" s="8"/>
+      <c r="BS79" s="8"/>
+      <c r="BT79" s="8"/>
+    </row>
+    <row r="80" spans="3:72">
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -5979,8 +5592,12 @@
       <c r="BN80" s="8"/>
       <c r="BO80" s="8"/>
       <c r="BP80" s="8"/>
-    </row>
-    <row r="81" spans="3:68">
+      <c r="BQ80" s="8"/>
+      <c r="BR80" s="8"/>
+      <c r="BS80" s="8"/>
+      <c r="BT80" s="8"/>
+    </row>
+    <row r="81" spans="3:72">
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -6047,8 +5664,12 @@
       <c r="BN81" s="8"/>
       <c r="BO81" s="8"/>
       <c r="BP81" s="8"/>
-    </row>
-    <row r="82" spans="3:68">
+      <c r="BQ81" s="8"/>
+      <c r="BR81" s="8"/>
+      <c r="BS81" s="8"/>
+      <c r="BT81" s="8"/>
+    </row>
+    <row r="82" spans="3:72">
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -6115,8 +5736,12 @@
       <c r="BN82" s="8"/>
       <c r="BO82" s="8"/>
       <c r="BP82" s="8"/>
-    </row>
-    <row r="83" spans="3:68">
+      <c r="BQ82" s="8"/>
+      <c r="BR82" s="8"/>
+      <c r="BS82" s="8"/>
+      <c r="BT82" s="8"/>
+    </row>
+    <row r="83" spans="3:72">
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -6183,8 +5808,12 @@
       <c r="BN83" s="8"/>
       <c r="BO83" s="8"/>
       <c r="BP83" s="8"/>
-    </row>
-    <row r="84" spans="3:68">
+      <c r="BQ83" s="8"/>
+      <c r="BR83" s="8"/>
+      <c r="BS83" s="8"/>
+      <c r="BT83" s="8"/>
+    </row>
+    <row r="84" spans="3:72">
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -6251,8 +5880,12 @@
       <c r="BN84" s="8"/>
       <c r="BO84" s="8"/>
       <c r="BP84" s="8"/>
-    </row>
-    <row r="85" spans="3:68">
+      <c r="BQ84" s="8"/>
+      <c r="BR84" s="8"/>
+      <c r="BS84" s="8"/>
+      <c r="BT84" s="8"/>
+    </row>
+    <row r="85" spans="3:72">
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -6319,8 +5952,12 @@
       <c r="BN85" s="8"/>
       <c r="BO85" s="8"/>
       <c r="BP85" s="8"/>
-    </row>
-    <row r="86" spans="3:68">
+      <c r="BQ85" s="8"/>
+      <c r="BR85" s="8"/>
+      <c r="BS85" s="8"/>
+      <c r="BT85" s="8"/>
+    </row>
+    <row r="86" spans="3:72">
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -6387,8 +6024,12 @@
       <c r="BN86" s="8"/>
       <c r="BO86" s="8"/>
       <c r="BP86" s="8"/>
-    </row>
-    <row r="87" spans="3:68">
+      <c r="BQ86" s="8"/>
+      <c r="BR86" s="8"/>
+      <c r="BS86" s="8"/>
+      <c r="BT86" s="8"/>
+    </row>
+    <row r="87" spans="3:72">
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -6455,8 +6096,12 @@
       <c r="BN87" s="8"/>
       <c r="BO87" s="8"/>
       <c r="BP87" s="8"/>
-    </row>
-    <row r="88" spans="3:68">
+      <c r="BQ87" s="8"/>
+      <c r="BR87" s="8"/>
+      <c r="BS87" s="8"/>
+      <c r="BT87" s="8"/>
+    </row>
+    <row r="88" spans="3:72">
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -6523,8 +6168,12 @@
       <c r="BN88" s="8"/>
       <c r="BO88" s="8"/>
       <c r="BP88" s="8"/>
-    </row>
-    <row r="89" spans="3:68">
+      <c r="BQ88" s="8"/>
+      <c r="BR88" s="8"/>
+      <c r="BS88" s="8"/>
+      <c r="BT88" s="8"/>
+    </row>
+    <row r="89" spans="3:72">
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -6591,8 +6240,12 @@
       <c r="BN89" s="8"/>
       <c r="BO89" s="8"/>
       <c r="BP89" s="8"/>
-    </row>
-    <row r="90" spans="3:68">
+      <c r="BQ89" s="8"/>
+      <c r="BR89" s="8"/>
+      <c r="BS89" s="8"/>
+      <c r="BT89" s="8"/>
+    </row>
+    <row r="90" spans="3:72">
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -6659,8 +6312,12 @@
       <c r="BN90" s="8"/>
       <c r="BO90" s="8"/>
       <c r="BP90" s="8"/>
-    </row>
-    <row r="91" spans="3:68">
+      <c r="BQ90" s="8"/>
+      <c r="BR90" s="8"/>
+      <c r="BS90" s="8"/>
+      <c r="BT90" s="8"/>
+    </row>
+    <row r="91" spans="3:72">
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -6727,8 +6384,12 @@
       <c r="BN91" s="8"/>
       <c r="BO91" s="8"/>
       <c r="BP91" s="8"/>
-    </row>
-    <row r="92" spans="3:68">
+      <c r="BQ91" s="8"/>
+      <c r="BR91" s="8"/>
+      <c r="BS91" s="8"/>
+      <c r="BT91" s="8"/>
+    </row>
+    <row r="92" spans="3:72">
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -6795,8 +6456,12 @@
       <c r="BN92" s="8"/>
       <c r="BO92" s="8"/>
       <c r="BP92" s="8"/>
-    </row>
-    <row r="93" spans="3:68">
+      <c r="BQ92" s="8"/>
+      <c r="BR92" s="8"/>
+      <c r="BS92" s="8"/>
+      <c r="BT92" s="8"/>
+    </row>
+    <row r="93" spans="3:72">
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -6863,8 +6528,12 @@
       <c r="BN93" s="8"/>
       <c r="BO93" s="8"/>
       <c r="BP93" s="8"/>
-    </row>
-    <row r="94" spans="3:68">
+      <c r="BQ93" s="8"/>
+      <c r="BR93" s="8"/>
+      <c r="BS93" s="8"/>
+      <c r="BT93" s="8"/>
+    </row>
+    <row r="94" spans="3:72">
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -6931,8 +6600,12 @@
       <c r="BN94" s="8"/>
       <c r="BO94" s="8"/>
       <c r="BP94" s="8"/>
-    </row>
-    <row r="95" spans="3:68">
+      <c r="BQ94" s="8"/>
+      <c r="BR94" s="8"/>
+      <c r="BS94" s="8"/>
+      <c r="BT94" s="8"/>
+    </row>
+    <row r="95" spans="3:72">
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -6999,8 +6672,12 @@
       <c r="BN95" s="8"/>
       <c r="BO95" s="8"/>
       <c r="BP95" s="8"/>
-    </row>
-    <row r="96" spans="3:68">
+      <c r="BQ95" s="8"/>
+      <c r="BR95" s="8"/>
+      <c r="BS95" s="8"/>
+      <c r="BT95" s="8"/>
+    </row>
+    <row r="96" spans="3:72">
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -7067,8 +6744,12 @@
       <c r="BN96" s="8"/>
       <c r="BO96" s="8"/>
       <c r="BP96" s="8"/>
-    </row>
-    <row r="97" spans="3:68">
+      <c r="BQ96" s="8"/>
+      <c r="BR96" s="8"/>
+      <c r="BS96" s="8"/>
+      <c r="BT96" s="8"/>
+    </row>
+    <row r="97" spans="3:72">
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -7135,8 +6816,12 @@
       <c r="BN97" s="8"/>
       <c r="BO97" s="8"/>
       <c r="BP97" s="8"/>
-    </row>
-    <row r="98" spans="3:68">
+      <c r="BQ97" s="8"/>
+      <c r="BR97" s="8"/>
+      <c r="BS97" s="8"/>
+      <c r="BT97" s="8"/>
+    </row>
+    <row r="98" spans="3:72">
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -7203,8 +6888,12 @@
       <c r="BN98" s="8"/>
       <c r="BO98" s="8"/>
       <c r="BP98" s="8"/>
-    </row>
-    <row r="99" spans="3:68">
+      <c r="BQ98" s="8"/>
+      <c r="BR98" s="8"/>
+      <c r="BS98" s="8"/>
+      <c r="BT98" s="8"/>
+    </row>
+    <row r="99" spans="3:72">
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -7271,8 +6960,12 @@
       <c r="BN99" s="8"/>
       <c r="BO99" s="8"/>
       <c r="BP99" s="8"/>
-    </row>
-    <row r="100" spans="3:68">
+      <c r="BQ99" s="8"/>
+      <c r="BR99" s="8"/>
+      <c r="BS99" s="8"/>
+      <c r="BT99" s="8"/>
+    </row>
+    <row r="100" spans="3:72">
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -7339,8 +7032,12 @@
       <c r="BN100" s="8"/>
       <c r="BO100" s="8"/>
       <c r="BP100" s="8"/>
-    </row>
-    <row r="101" spans="3:68">
+      <c r="BQ100" s="8"/>
+      <c r="BR100" s="8"/>
+      <c r="BS100" s="8"/>
+      <c r="BT100" s="8"/>
+    </row>
+    <row r="101" spans="3:72">
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -7407,8 +7104,12 @@
       <c r="BN101" s="8"/>
       <c r="BO101" s="8"/>
       <c r="BP101" s="8"/>
-    </row>
-    <row r="102" spans="3:68">
+      <c r="BQ101" s="8"/>
+      <c r="BR101" s="8"/>
+      <c r="BS101" s="8"/>
+      <c r="BT101" s="8"/>
+    </row>
+    <row r="102" spans="3:72">
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -7475,8 +7176,12 @@
       <c r="BN102" s="8"/>
       <c r="BO102" s="8"/>
       <c r="BP102" s="8"/>
-    </row>
-    <row r="103" spans="3:68">
+      <c r="BQ102" s="8"/>
+      <c r="BR102" s="8"/>
+      <c r="BS102" s="8"/>
+      <c r="BT102" s="8"/>
+    </row>
+    <row r="103" spans="3:72">
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -7543,8 +7248,12 @@
       <c r="BN103" s="8"/>
       <c r="BO103" s="8"/>
       <c r="BP103" s="8"/>
-    </row>
-    <row r="104" spans="3:68">
+      <c r="BQ103" s="8"/>
+      <c r="BR103" s="8"/>
+      <c r="BS103" s="8"/>
+      <c r="BT103" s="8"/>
+    </row>
+    <row r="104" spans="3:72">
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -7611,8 +7320,12 @@
       <c r="BN104" s="8"/>
       <c r="BO104" s="8"/>
       <c r="BP104" s="8"/>
-    </row>
-    <row r="105" spans="3:68">
+      <c r="BQ104" s="8"/>
+      <c r="BR104" s="8"/>
+      <c r="BS104" s="8"/>
+      <c r="BT104" s="8"/>
+    </row>
+    <row r="105" spans="3:72">
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -7679,8 +7392,12 @@
       <c r="BN105" s="8"/>
       <c r="BO105" s="8"/>
       <c r="BP105" s="8"/>
-    </row>
-    <row r="106" spans="3:68">
+      <c r="BQ105" s="8"/>
+      <c r="BR105" s="8"/>
+      <c r="BS105" s="8"/>
+      <c r="BT105" s="8"/>
+    </row>
+    <row r="106" spans="3:72">
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -7747,8 +7464,12 @@
       <c r="BN106" s="8"/>
       <c r="BO106" s="8"/>
       <c r="BP106" s="8"/>
-    </row>
-    <row r="107" spans="3:68">
+      <c r="BQ106" s="8"/>
+      <c r="BR106" s="8"/>
+      <c r="BS106" s="8"/>
+      <c r="BT106" s="8"/>
+    </row>
+    <row r="107" spans="3:72">
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -7815,8 +7536,12 @@
       <c r="BN107" s="8"/>
       <c r="BO107" s="8"/>
       <c r="BP107" s="8"/>
-    </row>
-    <row r="108" spans="3:68">
+      <c r="BQ107" s="8"/>
+      <c r="BR107" s="8"/>
+      <c r="BS107" s="8"/>
+      <c r="BT107" s="8"/>
+    </row>
+    <row r="108" spans="3:72">
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -7883,8 +7608,12 @@
       <c r="BN108" s="8"/>
       <c r="BO108" s="8"/>
       <c r="BP108" s="8"/>
-    </row>
-    <row r="109" spans="3:68">
+      <c r="BQ108" s="8"/>
+      <c r="BR108" s="8"/>
+      <c r="BS108" s="8"/>
+      <c r="BT108" s="8"/>
+    </row>
+    <row r="109" spans="3:72">
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -7951,8 +7680,12 @@
       <c r="BN109" s="8"/>
       <c r="BO109" s="8"/>
       <c r="BP109" s="8"/>
-    </row>
-    <row r="110" spans="3:68">
+      <c r="BQ109" s="8"/>
+      <c r="BR109" s="8"/>
+      <c r="BS109" s="8"/>
+      <c r="BT109" s="8"/>
+    </row>
+    <row r="110" spans="3:72">
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -8019,8 +7752,12 @@
       <c r="BN110" s="8"/>
       <c r="BO110" s="8"/>
       <c r="BP110" s="8"/>
-    </row>
-    <row r="111" spans="3:68">
+      <c r="BQ110" s="8"/>
+      <c r="BR110" s="8"/>
+      <c r="BS110" s="8"/>
+      <c r="BT110" s="8"/>
+    </row>
+    <row r="111" spans="3:72">
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -8087,8 +7824,12 @@
       <c r="BN111" s="8"/>
       <c r="BO111" s="8"/>
       <c r="BP111" s="8"/>
-    </row>
-    <row r="112" spans="3:68">
+      <c r="BQ111" s="8"/>
+      <c r="BR111" s="8"/>
+      <c r="BS111" s="8"/>
+      <c r="BT111" s="8"/>
+    </row>
+    <row r="112" spans="3:72">
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -8155,8 +7896,12 @@
       <c r="BN112" s="8"/>
       <c r="BO112" s="8"/>
       <c r="BP112" s="8"/>
-    </row>
-    <row r="113" spans="3:68">
+      <c r="BQ112" s="8"/>
+      <c r="BR112" s="8"/>
+      <c r="BS112" s="8"/>
+      <c r="BT112" s="8"/>
+    </row>
+    <row r="113" spans="3:72">
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -8223,8 +7968,12 @@
       <c r="BN113" s="8"/>
       <c r="BO113" s="8"/>
       <c r="BP113" s="8"/>
-    </row>
-    <row r="114" spans="3:68">
+      <c r="BQ113" s="8"/>
+      <c r="BR113" s="8"/>
+      <c r="BS113" s="8"/>
+      <c r="BT113" s="8"/>
+    </row>
+    <row r="114" spans="3:72">
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -8291,8 +8040,12 @@
       <c r="BN114" s="8"/>
       <c r="BO114" s="8"/>
       <c r="BP114" s="8"/>
-    </row>
-    <row r="115" spans="3:68">
+      <c r="BQ114" s="8"/>
+      <c r="BR114" s="8"/>
+      <c r="BS114" s="8"/>
+      <c r="BT114" s="8"/>
+    </row>
+    <row r="115" spans="3:72">
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -8359,8 +8112,12 @@
       <c r="BN115" s="8"/>
       <c r="BO115" s="8"/>
       <c r="BP115" s="8"/>
-    </row>
-    <row r="116" spans="3:68">
+      <c r="BQ115" s="8"/>
+      <c r="BR115" s="8"/>
+      <c r="BS115" s="8"/>
+      <c r="BT115" s="8"/>
+    </row>
+    <row r="116" spans="3:72">
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -8427,8 +8184,12 @@
       <c r="BN116" s="8"/>
       <c r="BO116" s="8"/>
       <c r="BP116" s="8"/>
-    </row>
-    <row r="117" spans="3:68">
+      <c r="BQ116" s="8"/>
+      <c r="BR116" s="8"/>
+      <c r="BS116" s="8"/>
+      <c r="BT116" s="8"/>
+    </row>
+    <row r="117" spans="3:72">
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -8495,8 +8256,12 @@
       <c r="BN117" s="8"/>
       <c r="BO117" s="8"/>
       <c r="BP117" s="8"/>
-    </row>
-    <row r="118" spans="3:68">
+      <c r="BQ117" s="8"/>
+      <c r="BR117" s="8"/>
+      <c r="BS117" s="8"/>
+      <c r="BT117" s="8"/>
+    </row>
+    <row r="118" spans="3:72">
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -8563,8 +8328,12 @@
       <c r="BN118" s="8"/>
       <c r="BO118" s="8"/>
       <c r="BP118" s="8"/>
-    </row>
-    <row r="119" spans="3:68">
+      <c r="BQ118" s="8"/>
+      <c r="BR118" s="8"/>
+      <c r="BS118" s="8"/>
+      <c r="BT118" s="8"/>
+    </row>
+    <row r="119" spans="3:72">
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -8631,8 +8400,12 @@
       <c r="BN119" s="8"/>
       <c r="BO119" s="8"/>
       <c r="BP119" s="8"/>
-    </row>
-    <row r="120" spans="3:68">
+      <c r="BQ119" s="8"/>
+      <c r="BR119" s="8"/>
+      <c r="BS119" s="8"/>
+      <c r="BT119" s="8"/>
+    </row>
+    <row r="120" spans="3:72">
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -8699,8 +8472,12 @@
       <c r="BN120" s="8"/>
       <c r="BO120" s="8"/>
       <c r="BP120" s="8"/>
-    </row>
-    <row r="121" spans="3:68">
+      <c r="BQ120" s="8"/>
+      <c r="BR120" s="8"/>
+      <c r="BS120" s="8"/>
+      <c r="BT120" s="8"/>
+    </row>
+    <row r="121" spans="3:72">
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -8767,8 +8544,12 @@
       <c r="BN121" s="8"/>
       <c r="BO121" s="8"/>
       <c r="BP121" s="8"/>
-    </row>
-    <row r="122" spans="3:68">
+      <c r="BQ121" s="8"/>
+      <c r="BR121" s="8"/>
+      <c r="BS121" s="8"/>
+      <c r="BT121" s="8"/>
+    </row>
+    <row r="122" spans="3:72">
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -8835,8 +8616,12 @@
       <c r="BN122" s="8"/>
       <c r="BO122" s="8"/>
       <c r="BP122" s="8"/>
-    </row>
-    <row r="123" spans="3:68">
+      <c r="BQ122" s="8"/>
+      <c r="BR122" s="8"/>
+      <c r="BS122" s="8"/>
+      <c r="BT122" s="8"/>
+    </row>
+    <row r="123" spans="3:72">
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -8903,8 +8688,12 @@
       <c r="BN123" s="8"/>
       <c r="BO123" s="8"/>
       <c r="BP123" s="8"/>
-    </row>
-    <row r="124" spans="3:68">
+      <c r="BQ123" s="8"/>
+      <c r="BR123" s="8"/>
+      <c r="BS123" s="8"/>
+      <c r="BT123" s="8"/>
+    </row>
+    <row r="124" spans="3:72">
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -8971,8 +8760,12 @@
       <c r="BN124" s="8"/>
       <c r="BO124" s="8"/>
       <c r="BP124" s="8"/>
-    </row>
-    <row r="125" spans="3:68">
+      <c r="BQ124" s="8"/>
+      <c r="BR124" s="8"/>
+      <c r="BS124" s="8"/>
+      <c r="BT124" s="8"/>
+    </row>
+    <row r="125" spans="3:72">
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -9039,8 +8832,12 @@
       <c r="BN125" s="8"/>
       <c r="BO125" s="8"/>
       <c r="BP125" s="8"/>
-    </row>
-    <row r="126" spans="3:68">
+      <c r="BQ125" s="8"/>
+      <c r="BR125" s="8"/>
+      <c r="BS125" s="8"/>
+      <c r="BT125" s="8"/>
+    </row>
+    <row r="126" spans="3:72">
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -9107,8 +8904,12 @@
       <c r="BN126" s="8"/>
       <c r="BO126" s="8"/>
       <c r="BP126" s="8"/>
-    </row>
-    <row r="127" spans="3:68">
+      <c r="BQ126" s="8"/>
+      <c r="BR126" s="8"/>
+      <c r="BS126" s="8"/>
+      <c r="BT126" s="8"/>
+    </row>
+    <row r="127" spans="3:72">
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -9175,8 +8976,12 @@
       <c r="BN127" s="8"/>
       <c r="BO127" s="8"/>
       <c r="BP127" s="8"/>
-    </row>
-    <row r="128" spans="3:68">
+      <c r="BQ127" s="8"/>
+      <c r="BR127" s="8"/>
+      <c r="BS127" s="8"/>
+      <c r="BT127" s="8"/>
+    </row>
+    <row r="128" spans="3:72">
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -9243,8 +9048,12 @@
       <c r="BN128" s="8"/>
       <c r="BO128" s="8"/>
       <c r="BP128" s="8"/>
-    </row>
-    <row r="129" spans="3:68">
+      <c r="BQ128" s="8"/>
+      <c r="BR128" s="8"/>
+      <c r="BS128" s="8"/>
+      <c r="BT128" s="8"/>
+    </row>
+    <row r="129" spans="3:72">
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -9311,8 +9120,12 @@
       <c r="BN129" s="8"/>
       <c r="BO129" s="8"/>
       <c r="BP129" s="8"/>
-    </row>
-    <row r="130" spans="3:68">
+      <c r="BQ129" s="8"/>
+      <c r="BR129" s="8"/>
+      <c r="BS129" s="8"/>
+      <c r="BT129" s="8"/>
+    </row>
+    <row r="130" spans="3:72">
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -9379,8 +9192,12 @@
       <c r="BN130" s="8"/>
       <c r="BO130" s="8"/>
       <c r="BP130" s="8"/>
-    </row>
-    <row r="131" spans="3:68">
+      <c r="BQ130" s="8"/>
+      <c r="BR130" s="8"/>
+      <c r="BS130" s="8"/>
+      <c r="BT130" s="8"/>
+    </row>
+    <row r="131" spans="3:72">
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -9447,8 +9264,12 @@
       <c r="BN131" s="8"/>
       <c r="BO131" s="8"/>
       <c r="BP131" s="8"/>
-    </row>
-    <row r="132" spans="3:68">
+      <c r="BQ131" s="8"/>
+      <c r="BR131" s="8"/>
+      <c r="BS131" s="8"/>
+      <c r="BT131" s="8"/>
+    </row>
+    <row r="132" spans="3:72">
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -9515,8 +9336,12 @@
       <c r="BN132" s="8"/>
       <c r="BO132" s="8"/>
       <c r="BP132" s="8"/>
-    </row>
-    <row r="133" spans="3:68">
+      <c r="BQ132" s="8"/>
+      <c r="BR132" s="8"/>
+      <c r="BS132" s="8"/>
+      <c r="BT132" s="8"/>
+    </row>
+    <row r="133" spans="3:72">
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -9583,8 +9408,12 @@
       <c r="BN133" s="8"/>
       <c r="BO133" s="8"/>
       <c r="BP133" s="8"/>
-    </row>
-    <row r="134" spans="3:68">
+      <c r="BQ133" s="8"/>
+      <c r="BR133" s="8"/>
+      <c r="BS133" s="8"/>
+      <c r="BT133" s="8"/>
+    </row>
+    <row r="134" spans="3:72">
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
@@ -9651,8 +9480,12 @@
       <c r="BN134" s="8"/>
       <c r="BO134" s="8"/>
       <c r="BP134" s="8"/>
-    </row>
-    <row r="135" spans="3:68">
+      <c r="BQ134" s="8"/>
+      <c r="BR134" s="8"/>
+      <c r="BS134" s="8"/>
+      <c r="BT134" s="8"/>
+    </row>
+    <row r="135" spans="3:72">
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
@@ -9719,8 +9552,12 @@
       <c r="BN135" s="8"/>
       <c r="BO135" s="8"/>
       <c r="BP135" s="8"/>
-    </row>
-    <row r="136" spans="3:68">
+      <c r="BQ135" s="8"/>
+      <c r="BR135" s="8"/>
+      <c r="BS135" s="8"/>
+      <c r="BT135" s="8"/>
+    </row>
+    <row r="136" spans="3:72">
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -9787,8 +9624,12 @@
       <c r="BN136" s="8"/>
       <c r="BO136" s="8"/>
       <c r="BP136" s="8"/>
-    </row>
-    <row r="137" spans="3:68">
+      <c r="BQ136" s="8"/>
+      <c r="BR136" s="8"/>
+      <c r="BS136" s="8"/>
+      <c r="BT136" s="8"/>
+    </row>
+    <row r="137" spans="3:72">
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
@@ -9855,8 +9696,12 @@
       <c r="BN137" s="8"/>
       <c r="BO137" s="8"/>
       <c r="BP137" s="8"/>
-    </row>
-    <row r="138" spans="3:68">
+      <c r="BQ137" s="8"/>
+      <c r="BR137" s="8"/>
+      <c r="BS137" s="8"/>
+      <c r="BT137" s="8"/>
+    </row>
+    <row r="138" spans="3:72">
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
@@ -9923,8 +9768,12 @@
       <c r="BN138" s="8"/>
       <c r="BO138" s="8"/>
       <c r="BP138" s="8"/>
-    </row>
-    <row r="139" spans="3:68">
+      <c r="BQ138" s="8"/>
+      <c r="BR138" s="8"/>
+      <c r="BS138" s="8"/>
+      <c r="BT138" s="8"/>
+    </row>
+    <row r="139" spans="3:72">
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -9991,8 +9840,12 @@
       <c r="BN139" s="8"/>
       <c r="BO139" s="8"/>
       <c r="BP139" s="8"/>
-    </row>
-    <row r="140" spans="3:68">
+      <c r="BQ139" s="8"/>
+      <c r="BR139" s="8"/>
+      <c r="BS139" s="8"/>
+      <c r="BT139" s="8"/>
+    </row>
+    <row r="140" spans="3:72">
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
@@ -10059,8 +9912,12 @@
       <c r="BN140" s="8"/>
       <c r="BO140" s="8"/>
       <c r="BP140" s="8"/>
-    </row>
-    <row r="141" spans="3:68">
+      <c r="BQ140" s="8"/>
+      <c r="BR140" s="8"/>
+      <c r="BS140" s="8"/>
+      <c r="BT140" s="8"/>
+    </row>
+    <row r="141" spans="3:72">
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
@@ -10127,8 +9984,12 @@
       <c r="BN141" s="8"/>
       <c r="BO141" s="8"/>
       <c r="BP141" s="8"/>
-    </row>
-    <row r="142" spans="3:68">
+      <c r="BQ141" s="8"/>
+      <c r="BR141" s="8"/>
+      <c r="BS141" s="8"/>
+      <c r="BT141" s="8"/>
+    </row>
+    <row r="142" spans="3:72">
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
@@ -10195,8 +10056,12 @@
       <c r="BN142" s="8"/>
       <c r="BO142" s="8"/>
       <c r="BP142" s="8"/>
-    </row>
-    <row r="143" spans="3:68">
+      <c r="BQ142" s="8"/>
+      <c r="BR142" s="8"/>
+      <c r="BS142" s="8"/>
+      <c r="BT142" s="8"/>
+    </row>
+    <row r="143" spans="3:72">
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
@@ -10263,8 +10128,12 @@
       <c r="BN143" s="8"/>
       <c r="BO143" s="8"/>
       <c r="BP143" s="8"/>
-    </row>
-    <row r="144" spans="3:68">
+      <c r="BQ143" s="8"/>
+      <c r="BR143" s="8"/>
+      <c r="BS143" s="8"/>
+      <c r="BT143" s="8"/>
+    </row>
+    <row r="144" spans="3:72">
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -10331,8 +10200,12 @@
       <c r="BN144" s="8"/>
       <c r="BO144" s="8"/>
       <c r="BP144" s="8"/>
-    </row>
-    <row r="145" spans="3:68">
+      <c r="BQ144" s="8"/>
+      <c r="BR144" s="8"/>
+      <c r="BS144" s="8"/>
+      <c r="BT144" s="8"/>
+    </row>
+    <row r="145" spans="3:72">
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
@@ -10399,8 +10272,12 @@
       <c r="BN145" s="8"/>
       <c r="BO145" s="8"/>
       <c r="BP145" s="8"/>
-    </row>
-    <row r="146" spans="3:68">
+      <c r="BQ145" s="8"/>
+      <c r="BR145" s="8"/>
+      <c r="BS145" s="8"/>
+      <c r="BT145" s="8"/>
+    </row>
+    <row r="146" spans="3:72">
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
@@ -10467,8 +10344,12 @@
       <c r="BN146" s="8"/>
       <c r="BO146" s="8"/>
       <c r="BP146" s="8"/>
-    </row>
-    <row r="147" spans="3:68">
+      <c r="BQ146" s="8"/>
+      <c r="BR146" s="8"/>
+      <c r="BS146" s="8"/>
+      <c r="BT146" s="8"/>
+    </row>
+    <row r="147" spans="3:72">
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
@@ -10535,8 +10416,12 @@
       <c r="BN147" s="8"/>
       <c r="BO147" s="8"/>
       <c r="BP147" s="8"/>
-    </row>
-    <row r="148" spans="3:68">
+      <c r="BQ147" s="8"/>
+      <c r="BR147" s="8"/>
+      <c r="BS147" s="8"/>
+      <c r="BT147" s="8"/>
+    </row>
+    <row r="148" spans="3:72">
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
@@ -10603,8 +10488,12 @@
       <c r="BN148" s="8"/>
       <c r="BO148" s="8"/>
       <c r="BP148" s="8"/>
-    </row>
-    <row r="149" spans="3:68">
+      <c r="BQ148" s="8"/>
+      <c r="BR148" s="8"/>
+      <c r="BS148" s="8"/>
+      <c r="BT148" s="8"/>
+    </row>
+    <row r="149" spans="3:72">
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
@@ -10671,8 +10560,12 @@
       <c r="BN149" s="8"/>
       <c r="BO149" s="8"/>
       <c r="BP149" s="8"/>
-    </row>
-    <row r="150" spans="3:68">
+      <c r="BQ149" s="8"/>
+      <c r="BR149" s="8"/>
+      <c r="BS149" s="8"/>
+      <c r="BT149" s="8"/>
+    </row>
+    <row r="150" spans="3:72">
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
@@ -10739,8 +10632,12 @@
       <c r="BN150" s="8"/>
       <c r="BO150" s="8"/>
       <c r="BP150" s="8"/>
-    </row>
-    <row r="151" spans="3:68">
+      <c r="BQ150" s="8"/>
+      <c r="BR150" s="8"/>
+      <c r="BS150" s="8"/>
+      <c r="BT150" s="8"/>
+    </row>
+    <row r="151" spans="3:72">
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
@@ -10807,8 +10704,12 @@
       <c r="BN151" s="8"/>
       <c r="BO151" s="8"/>
       <c r="BP151" s="8"/>
-    </row>
-    <row r="152" spans="3:68">
+      <c r="BQ151" s="8"/>
+      <c r="BR151" s="8"/>
+      <c r="BS151" s="8"/>
+      <c r="BT151" s="8"/>
+    </row>
+    <row r="152" spans="3:72">
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
@@ -10875,8 +10776,12 @@
       <c r="BN152" s="8"/>
       <c r="BO152" s="8"/>
       <c r="BP152" s="8"/>
-    </row>
-    <row r="153" spans="3:68">
+      <c r="BQ152" s="8"/>
+      <c r="BR152" s="8"/>
+      <c r="BS152" s="8"/>
+      <c r="BT152" s="8"/>
+    </row>
+    <row r="153" spans="3:72">
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
@@ -10943,8 +10848,12 @@
       <c r="BN153" s="8"/>
       <c r="BO153" s="8"/>
       <c r="BP153" s="8"/>
-    </row>
-    <row r="154" spans="3:68">
+      <c r="BQ153" s="8"/>
+      <c r="BR153" s="8"/>
+      <c r="BS153" s="8"/>
+      <c r="BT153" s="8"/>
+    </row>
+    <row r="154" spans="3:72">
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
@@ -11011,8 +10920,12 @@
       <c r="BN154" s="8"/>
       <c r="BO154" s="8"/>
       <c r="BP154" s="8"/>
-    </row>
-    <row r="155" spans="3:68">
+      <c r="BQ154" s="8"/>
+      <c r="BR154" s="8"/>
+      <c r="BS154" s="8"/>
+      <c r="BT154" s="8"/>
+    </row>
+    <row r="155" spans="3:72">
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
@@ -11079,8 +10992,12 @@
       <c r="BN155" s="8"/>
       <c r="BO155" s="8"/>
       <c r="BP155" s="8"/>
-    </row>
-    <row r="156" spans="3:68">
+      <c r="BQ155" s="8"/>
+      <c r="BR155" s="8"/>
+      <c r="BS155" s="8"/>
+      <c r="BT155" s="8"/>
+    </row>
+    <row r="156" spans="3:72">
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
@@ -11147,8 +11064,12 @@
       <c r="BN156" s="8"/>
       <c r="BO156" s="8"/>
       <c r="BP156" s="8"/>
-    </row>
-    <row r="157" spans="3:68">
+      <c r="BQ156" s="8"/>
+      <c r="BR156" s="8"/>
+      <c r="BS156" s="8"/>
+      <c r="BT156" s="8"/>
+    </row>
+    <row r="157" spans="3:72">
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
@@ -11215,8 +11136,12 @@
       <c r="BN157" s="8"/>
       <c r="BO157" s="8"/>
       <c r="BP157" s="8"/>
-    </row>
-    <row r="158" spans="3:68">
+      <c r="BQ157" s="8"/>
+      <c r="BR157" s="8"/>
+      <c r="BS157" s="8"/>
+      <c r="BT157" s="8"/>
+    </row>
+    <row r="158" spans="3:72">
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -11283,8 +11208,12 @@
       <c r="BN158" s="8"/>
       <c r="BO158" s="8"/>
       <c r="BP158" s="8"/>
-    </row>
-    <row r="159" spans="3:68">
+      <c r="BQ158" s="8"/>
+      <c r="BR158" s="8"/>
+      <c r="BS158" s="8"/>
+      <c r="BT158" s="8"/>
+    </row>
+    <row r="159" spans="3:72">
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
@@ -11351,8 +11280,12 @@
       <c r="BN159" s="8"/>
       <c r="BO159" s="8"/>
       <c r="BP159" s="8"/>
-    </row>
-    <row r="160" spans="3:68">
+      <c r="BQ159" s="8"/>
+      <c r="BR159" s="8"/>
+      <c r="BS159" s="8"/>
+      <c r="BT159" s="8"/>
+    </row>
+    <row r="160" spans="3:72">
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
@@ -11419,8 +11352,12 @@
       <c r="BN160" s="8"/>
       <c r="BO160" s="8"/>
       <c r="BP160" s="8"/>
-    </row>
-    <row r="161" spans="3:68">
+      <c r="BQ160" s="8"/>
+      <c r="BR160" s="8"/>
+      <c r="BS160" s="8"/>
+      <c r="BT160" s="8"/>
+    </row>
+    <row r="161" spans="3:72">
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
@@ -11487,8 +11424,12 @@
       <c r="BN161" s="8"/>
       <c r="BO161" s="8"/>
       <c r="BP161" s="8"/>
-    </row>
-    <row r="162" spans="3:68">
+      <c r="BQ161" s="8"/>
+      <c r="BR161" s="8"/>
+      <c r="BS161" s="8"/>
+      <c r="BT161" s="8"/>
+    </row>
+    <row r="162" spans="3:72">
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
@@ -11555,8 +11496,12 @@
       <c r="BN162" s="8"/>
       <c r="BO162" s="8"/>
       <c r="BP162" s="8"/>
-    </row>
-    <row r="163" spans="3:68">
+      <c r="BQ162" s="8"/>
+      <c r="BR162" s="8"/>
+      <c r="BS162" s="8"/>
+      <c r="BT162" s="8"/>
+    </row>
+    <row r="163" spans="3:72">
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
@@ -11623,8 +11568,12 @@
       <c r="BN163" s="8"/>
       <c r="BO163" s="8"/>
       <c r="BP163" s="8"/>
-    </row>
-    <row r="164" spans="3:68">
+      <c r="BQ163" s="8"/>
+      <c r="BR163" s="8"/>
+      <c r="BS163" s="8"/>
+      <c r="BT163" s="8"/>
+    </row>
+    <row r="164" spans="3:72">
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
@@ -11691,8 +11640,12 @@
       <c r="BN164" s="8"/>
       <c r="BO164" s="8"/>
       <c r="BP164" s="8"/>
-    </row>
-    <row r="165" spans="3:68">
+      <c r="BQ164" s="8"/>
+      <c r="BR164" s="8"/>
+      <c r="BS164" s="8"/>
+      <c r="BT164" s="8"/>
+    </row>
+    <row r="165" spans="3:72">
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
@@ -11759,8 +11712,12 @@
       <c r="BN165" s="8"/>
       <c r="BO165" s="8"/>
       <c r="BP165" s="8"/>
-    </row>
-    <row r="166" spans="3:68">
+      <c r="BQ165" s="8"/>
+      <c r="BR165" s="8"/>
+      <c r="BS165" s="8"/>
+      <c r="BT165" s="8"/>
+    </row>
+    <row r="166" spans="3:72">
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
@@ -11827,6 +11784,10 @@
       <c r="BN166" s="8"/>
       <c r="BO166" s="8"/>
       <c r="BP166" s="8"/>
+      <c r="BQ166" s="8"/>
+      <c r="BR166" s="8"/>
+      <c r="BS166" s="8"/>
+      <c r="BT166" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
